--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386447834</v>
+        <v>834735.0396465267</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386447834</v>
+        <v>834735.0396465267</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189607923.561357</v>
+        <v>48794242.35363065</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10926.03941414467</v>
+        <v>1178630.62463728</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20629.08905545828</v>
+        <v>2154647.830895041</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30332.13869677187</v>
+        <v>3130665.037152803</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40542.75368615851</v>
+        <v>4074210.510267847</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50753.36867554513</v>
+        <v>5017755.983382892</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60573.46431120378</v>
+        <v>5993474.698232776</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70393.55994686243</v>
+        <v>6969193.41308266</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80213.65558252108</v>
+        <v>7944912.127932543</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90241.47099949616</v>
+        <v>8887694.750559084</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100297.7955073791</v>
+        <v>9836150.682276785</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110354.1200152629</v>
+        <v>10784606.61399423</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120410.4445231455</v>
+        <v>11733062.54571178</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130466.7690310297</v>
+        <v>12681518.47742926</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140523.0935389108</v>
+        <v>13629974.40914696</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150579.4180467922</v>
+        <v>14578430.34086462</v>
       </c>
     </row>
   </sheetData>
